--- a/biology/Médecine/Société_internationale_d'histoire_de_la_médecine/Société_internationale_d'histoire_de_la_médecine.xlsx
+++ b/biology/Médecine/Société_internationale_d'histoire_de_la_médecine/Société_internationale_d'histoire_de_la_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_internationale_d%27histoire_de_la_m%C3%A9decine</t>
+          <t>Société_internationale_d'histoire_de_la_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Société internationale d'histoire de la médecine (SIHM) a été fondée en 1921 à Paris par un médecin belge, le Pr. Dr Jean-Joseph Tricot-Royer, et compte actuellement des centaines de membres originaires de tous les continents, intéressés par l'histoire de l'art de guérir[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société internationale d'histoire de la médecine (SIHM) a été fondée en 1921 à Paris par un médecin belge, le Pr. Dr Jean-Joseph Tricot-Royer, et compte actuellement des centaines de membres originaires de tous les continents, intéressés par l'histoire de l'art de guérir.
 Disposant de deux langues officielles d'expression, le français et l'anglais, la SIHM a pour mission d'encourager et de soutenir le développement des recherches entreprises dans les champs de l'histoire de la médecine, des sciences biomédicales et de l'art de guérir, en général ; d'améliorer la communication entre les individus et les groupes professionnels intéressés, de par le monde, par ces disciplines ; de promouvoir l'enseignement, de stimuler l'intérêt et de diffuser les connaissances sur ces thèmes.
 Depuis 1995, la société édite deux fois par an sa propre revue spécialisée Vesalius. Elle organise chaque année soit un congrès international (les années paires), soit un symposium international (les années impaires). 
 </t>
